--- a/GurpreetKaurManual.xlsx
+++ b/GurpreetKaurManual.xlsx
@@ -425,12 +425,6 @@
     <t>Test ID</t>
   </si>
   <si>
-    <t>Test Cases</t>
-  </si>
-  <si>
-    <t>Test Type</t>
-  </si>
-  <si>
     <t>Pass/Fail</t>
   </si>
   <si>
@@ -578,33 +572,6 @@
     <t>Verify the button position is at the centre of the screen and its is not fixed element of screen</t>
   </si>
   <si>
-    <t>4. Verify when user clicks on Load Previous data button, it loads the previous schedule matches with respect to their details &amp; score</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Verify the Schedulae Page screen Load Previous Data button functionality is working as per the requirement</t>
-    </r>
-  </si>
-  <si>
     <t>TID-4.5</t>
   </si>
   <si>
@@ -642,25 +609,31 @@
   </si>
   <si>
     <t>TID-6.11</t>
+  </si>
+  <si>
+    <t>Test Scenario Group</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Verify when user clicks on Load Previous data button, it loads the previous schedule matches with respect to their details &amp; score</t>
+  </si>
+  <si>
+    <t>Verify the Schedulae Page screen Load Previous Data button functionality is working as per the requirement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -683,11 +656,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -985,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77:E78"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1003,19 +973,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
         <v>135</v>
       </c>
       <c r="C2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" t="s">
-        <v>138</v>
-      </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1025,14 +995,14 @@
       <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>198</v>
+      <c r="D3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1042,14 +1012,14 @@
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>198</v>
+      <c r="D4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1059,14 +1029,14 @@
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>198</v>
+      <c r="D5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1076,14 +1046,14 @@
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>198</v>
+      <c r="D6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1093,14 +1063,14 @@
       <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>198</v>
+      <c r="D7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1110,14 +1080,14 @@
       <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>198</v>
+      <c r="D8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1130,11 +1100,11 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>198</v>
+      <c r="D9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1144,14 +1114,14 @@
       <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>198</v>
+      <c r="D10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1161,14 +1131,14 @@
       <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>198</v>
+      <c r="D11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1178,14 +1148,14 @@
       <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>198</v>
+      <c r="D12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1195,14 +1165,14 @@
       <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>198</v>
+      <c r="D13" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1212,14 +1182,14 @@
       <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>198</v>
+      <c r="D14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1229,14 +1199,14 @@
       <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>198</v>
+      <c r="D15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1246,14 +1216,14 @@
       <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>198</v>
+      <c r="D16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1263,14 +1233,14 @@
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>198</v>
+      <c r="D17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1280,14 +1250,14 @@
       <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>198</v>
+      <c r="D18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1297,14 +1267,14 @@
       <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>198</v>
+      <c r="D19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1314,14 +1284,14 @@
       <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>198</v>
+      <c r="D20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1331,14 +1301,14 @@
       <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>198</v>
+      <c r="D21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1348,14 +1318,14 @@
       <c r="B22" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>198</v>
+      <c r="D22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1365,14 +1335,14 @@
       <c r="B23" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>198</v>
+      <c r="D23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1382,14 +1352,14 @@
       <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>198</v>
+      <c r="D24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1399,14 +1369,14 @@
       <c r="B25" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>198</v>
+      <c r="D25" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1416,14 +1386,14 @@
       <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>198</v>
+      <c r="C26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1433,14 +1403,14 @@
       <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>198</v>
+      <c r="D27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1450,14 +1420,14 @@
       <c r="B28" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>198</v>
+      <c r="D28" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1467,14 +1437,14 @@
       <c r="B29" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>198</v>
+      <c r="D29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1484,14 +1454,14 @@
       <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>198</v>
+      <c r="D30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1501,14 +1471,14 @@
       <c r="B31" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>198</v>
+      <c r="D31" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1518,14 +1488,14 @@
       <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>198</v>
+      <c r="D32" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1535,14 +1505,14 @@
       <c r="B33" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>198</v>
+      <c r="D33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1552,14 +1522,14 @@
       <c r="B34" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>198</v>
+      <c r="D34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1569,14 +1539,14 @@
       <c r="B35" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>198</v>
+      <c r="D35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1586,14 +1556,14 @@
       <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>198</v>
+      <c r="D36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1603,14 +1573,14 @@
       <c r="B37" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>198</v>
+      <c r="D37" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1620,14 +1590,14 @@
       <c r="B38" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>198</v>
+      <c r="D38" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1637,14 +1607,14 @@
       <c r="B39" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>198</v>
+      <c r="D39" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1654,14 +1624,14 @@
       <c r="B40" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>198</v>
+      <c r="C40" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1671,14 +1641,14 @@
       <c r="B41" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>198</v>
+      <c r="C41" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1686,16 +1656,16 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>198</v>
+        <v>151</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1703,16 +1673,16 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>198</v>
+      <c r="D43" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1722,14 +1692,14 @@
       <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>198</v>
+      <c r="D44" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1742,11 +1712,11 @@
       <c r="C45" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>198</v>
+      <c r="D45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1756,14 +1726,14 @@
       <c r="B46" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>198</v>
+      <c r="D46" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1773,14 +1743,14 @@
       <c r="B47" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>198</v>
+      <c r="D47" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1790,14 +1760,14 @@
       <c r="B48" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>198</v>
+      <c r="D48" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1807,14 +1777,14 @@
       <c r="B49" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>198</v>
+      <c r="D49" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1824,14 +1794,14 @@
       <c r="B50" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>198</v>
+      <c r="D50" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1841,14 +1811,14 @@
       <c r="B51" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>198</v>
+      <c r="D51" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1858,14 +1828,14 @@
       <c r="B52" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>198</v>
+      <c r="D52" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1875,14 +1845,14 @@
       <c r="B53" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>198</v>
+      <c r="D53" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1892,14 +1862,14 @@
       <c r="B54" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>198</v>
+      <c r="D54" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1909,14 +1879,14 @@
       <c r="B55" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>198</v>
+      <c r="D55" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1926,14 +1896,14 @@
       <c r="B56" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>198</v>
+      <c r="D56" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1943,14 +1913,14 @@
       <c r="B57" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>198</v>
+      <c r="C57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1960,14 +1930,14 @@
       <c r="B58" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>198</v>
+      <c r="C58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1977,14 +1947,14 @@
       <c r="B59" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>198</v>
+      <c r="D59" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1994,14 +1964,14 @@
       <c r="B60" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>198</v>
+      <c r="D60" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2011,14 +1981,14 @@
       <c r="B61" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>198</v>
+      <c r="C61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2028,14 +1998,14 @@
       <c r="B62" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>198</v>
+      <c r="D62" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2045,14 +2015,14 @@
       <c r="B63" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>198</v>
+      <c r="D63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2062,14 +2032,14 @@
       <c r="B64" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>198</v>
+      <c r="C64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2079,14 +2049,14 @@
       <c r="B65" t="s">
         <v>119</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>198</v>
+      <c r="D65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2096,14 +2066,14 @@
       <c r="B66" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>198</v>
+      <c r="D66" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2113,14 +2083,14 @@
       <c r="B67" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>198</v>
+      <c r="D67" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2130,14 +2100,14 @@
       <c r="B68" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>198</v>
+      <c r="C68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2147,14 +2117,14 @@
       <c r="B69" t="s">
         <v>126</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>198</v>
+      <c r="D69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2164,14 +2134,14 @@
       <c r="B70" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>198</v>
+      <c r="C70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2181,14 +2151,14 @@
       <c r="B71" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>198</v>
+      <c r="C71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2198,14 +2168,14 @@
       <c r="B72" t="s">
         <v>129</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>198</v>
+      <c r="C72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2215,14 +2185,14 @@
       <c r="B73" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>198</v>
+      <c r="C73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2232,14 +2202,14 @@
       <c r="B74" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>198</v>
+      <c r="C74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2249,14 +2219,14 @@
       <c r="B75" t="s">
         <v>132</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>198</v>
+      <c r="C75" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2266,14 +2236,14 @@
       <c r="B76" t="s">
         <v>133</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>198</v>
+      <c r="C76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2283,14 +2253,14 @@
       <c r="B77" t="s">
         <v>134</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>198</v>
+      <c r="C77" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2298,16 +2268,16 @@
         <v>124</v>
       </c>
       <c r="B78" t="s">
-        <v>201</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2319,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:E45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2334,512 +2304,512 @@
   <sheetData>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
         <v>135</v>
       </c>
       <c r="C3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" t="s">
         <v>136</v>
       </c>
-      <c r="D3" t="s">
-        <v>138</v>
-      </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>198</v>
+      <c r="C4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>198</v>
+      <c r="C5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>198</v>
+      <c r="C6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>198</v>
+      <c r="C7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>198</v>
+      <c r="C8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>198</v>
+      <c r="C9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>198</v>
+      <c r="C10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>198</v>
+      <c r="D11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>198</v>
+      <c r="D12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>198</v>
+      <c r="D13" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>198</v>
+      <c r="D14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>198</v>
+      <c r="C15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>198</v>
+      <c r="C16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>198</v>
+      <c r="C17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>198</v>
+      <c r="C18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>198</v>
+      <c r="C19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>198</v>
+      <c r="C20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>198</v>
+      <c r="C21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>198</v>
+      <c r="C22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>198</v>
+      <c r="C23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
         <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>198</v>
+        <v>162</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>198</v>
+      <c r="C25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>198</v>
+      <c r="C26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>198</v>
+      <c r="C27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>198</v>
+      <c r="C28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>198</v>
+      <c r="C29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>198</v>
+      <c r="C30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>198</v>
+      <c r="D31" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>198</v>
+      <c r="C32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2849,14 +2819,14 @@
       <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>198</v>
+      <c r="D33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2866,14 +2836,14 @@
       <c r="B34" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>198</v>
+      <c r="D34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2884,183 +2854,183 @@
         <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>198</v>
+        <v>157</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B36" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>198</v>
+      <c r="C36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B37" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>198</v>
+      <c r="C37" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B38" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>198</v>
+      <c r="C38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B39" t="s">
-        <v>163</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>198</v>
+      <c r="D39" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B40" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>198</v>
+      <c r="C40" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B41" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>198</v>
+      <c r="C41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B42" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>198</v>
+      <c r="C42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B43" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>198</v>
+      <c r="C43" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
